--- a/WGRDBESstockCoord/format/RCEF_v14_suggestions/RCEF_tv14.8_example.xlsx
+++ b/WGRDBESstockCoord/format/RCEF_v14_suggestions/RCEF_tv14.8_example.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dtudk-my.sharepoint.com/personal/kibi_dtu_dk/Documents/gits/RDBESstockCoord/WGRDBESstockCoord/format/RCEF_v14_suggestions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0684CD61-0266-4FBE-96D0-4D1DBF4234B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="8_{0684CD61-0266-4FBE-96D0-4D1DBF4234B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D5DBBC03-CD2D-4D18-B41B-AEFA9959D2D8}"/>
   <bookViews>
     <workbookView xWindow="19090" yWindow="-110" windowWidth="38620" windowHeight="21100" tabRatio="735" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="972" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1127" uniqueCount="84">
   <si>
     <t>year</t>
   </si>
@@ -368,7 +368,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -383,6 +383,8 @@
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -824,10 +826,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B48A55BC-D03E-4CBB-A0B5-0F479A2B792C}" name="Table3" displayName="Table3" ref="A2:Y47" totalsRowShown="0" dataDxfId="28">
   <autoFilter ref="A2:Y47" xr:uid="{B48A55BC-D03E-4CBB-A0B5-0F479A2B792C}"/>
@@ -1300,7 +1298,7 @@
   <dimension ref="A1:Y50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="77" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H38" sqref="H38"/>
+      <selection activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2109,117 +2107,773 @@
       </c>
     </row>
     <row r="15" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="T15" s="11"/>
+      <c r="A15" s="1">
+        <v>2</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="1">
+        <v>2023</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" s="1">
+        <v>127150</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I15" s="1">
+        <v>1</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="S15" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="T15" s="11">
+        <v>50</v>
+      </c>
       <c r="U15" s="11"/>
       <c r="V15" s="11"/>
       <c r="W15" s="11"/>
       <c r="X15" s="11"/>
     </row>
     <row r="16" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="T16" s="11"/>
+      <c r="A16" s="1">
+        <v>2</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="1">
+        <v>2023</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" s="1">
+        <v>127150</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I16" s="1">
+        <v>1</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="S16" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="T16" s="11">
+        <v>20</v>
+      </c>
       <c r="U16" s="11"/>
       <c r="V16" s="11"/>
       <c r="W16" s="11"/>
       <c r="X16" s="11"/>
     </row>
-    <row r="17" spans="20:24" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="T17" s="11"/>
-    </row>
-    <row r="18" spans="20:24" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="T18" s="11"/>
+    <row r="17" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>2</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="1">
+        <v>2023</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" s="1">
+        <v>127150</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I17" s="1">
+        <v>1</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="S17" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="T17" s="11">
+        <v>400</v>
+      </c>
+      <c r="U17" s="11"/>
+      <c r="V17" s="11"/>
+      <c r="W17" s="11"/>
+      <c r="X17" s="11"/>
+    </row>
+    <row r="18" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>2</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="1">
+        <v>2023</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" s="1">
+        <v>127150</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I18" s="1">
+        <v>1</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="S18" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="T18" s="11">
+        <v>200</v>
+      </c>
       <c r="U18" s="11"/>
       <c r="V18" s="11"/>
       <c r="W18" s="11"/>
       <c r="X18" s="11"/>
     </row>
-    <row r="19" spans="20:24" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="T19" s="11"/>
+    <row r="19" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>2</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="1">
+        <v>2023</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F19" s="1">
+        <v>127150</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I19" s="1">
+        <v>1</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="S19" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="T19" s="11">
+        <v>10</v>
+      </c>
       <c r="U19" s="11"/>
       <c r="V19" s="11"/>
       <c r="W19" s="11"/>
       <c r="X19" s="11"/>
     </row>
-    <row r="20" spans="20:24" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="T20" s="11"/>
+    <row r="20" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>2</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" s="1">
+        <v>2023</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F20" s="1">
+        <v>127150</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I20" s="1">
+        <v>1</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="S20" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="T20" s="11">
+        <v>10</v>
+      </c>
       <c r="U20" s="11"/>
       <c r="V20" s="11"/>
       <c r="W20" s="11"/>
       <c r="X20" s="11"/>
     </row>
-    <row r="21" spans="20:24" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="T21" s="11"/>
+    <row r="21" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>2</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="1">
+        <v>2023</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F21" s="1">
+        <v>127150</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I21" s="1">
+        <v>2</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="O21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P21" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="S21" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="T21" s="11">
+        <v>650</v>
+      </c>
       <c r="U21" s="11"/>
       <c r="V21" s="11"/>
       <c r="W21" s="11"/>
       <c r="X21" s="11"/>
     </row>
-    <row r="22" spans="20:24" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="T22" s="11"/>
-    </row>
-    <row r="23" spans="20:24" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="T23" s="11"/>
+    <row r="22" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>2</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" s="1">
+        <v>2023</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F22" s="1">
+        <v>127150</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I22" s="1">
+        <v>2</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="O22" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P22" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="S22" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="T22" s="11">
+        <v>1200</v>
+      </c>
+      <c r="U22" s="11"/>
+      <c r="V22" s="11"/>
+      <c r="W22" s="11"/>
+      <c r="X22" s="11"/>
+    </row>
+    <row r="23" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>2</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" s="1">
+        <v>2023</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F23" s="1">
+        <v>127150</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I23" s="1">
+        <v>2</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="O23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P23" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="S23" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="T23" s="11">
+        <v>20</v>
+      </c>
       <c r="U23" s="11"/>
       <c r="V23" s="11"/>
       <c r="W23" s="11"/>
       <c r="X23" s="11"/>
     </row>
-    <row r="24" spans="20:24" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="T24" s="11"/>
+    <row r="24" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>2</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24" s="1">
+        <v>2023</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F24" s="1">
+        <v>127150</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I24" s="1">
+        <v>2</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N24" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="O24" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P24" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="S24" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="T24" s="11">
+        <v>10</v>
+      </c>
       <c r="U24" s="11"/>
       <c r="V24" s="11"/>
       <c r="W24" s="11"/>
       <c r="X24" s="11"/>
     </row>
-    <row r="25" spans="20:24" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="T25" s="11"/>
-      <c r="U25" s="11"/>
-      <c r="V25" s="11"/>
-      <c r="W25" s="11"/>
-      <c r="X25" s="11"/>
-    </row>
-    <row r="26" spans="20:24" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="T26" s="11"/>
-      <c r="U26" s="11"/>
-      <c r="V26" s="11"/>
-      <c r="W26" s="11"/>
-      <c r="X26" s="11"/>
-    </row>
-    <row r="27" spans="20:24" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="T27" s="11"/>
-      <c r="U27" s="11"/>
-      <c r="V27" s="11"/>
-      <c r="W27" s="11"/>
-      <c r="X27" s="11"/>
-    </row>
-    <row r="28" spans="20:24" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:24" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>2</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" s="14">
+        <v>2023</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="E25" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="F25" s="14">
+        <v>127150</v>
+      </c>
+      <c r="G25" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="H25" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="I25" s="14">
+        <v>2023</v>
+      </c>
+      <c r="J25" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="K25" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="M25" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="N25" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="O25" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="P25" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="S25" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="T25" s="15">
+        <v>34574.719664236181</v>
+      </c>
+      <c r="U25" s="15"/>
+      <c r="V25" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="W25" s="14">
+        <v>15</v>
+      </c>
+      <c r="X25" s="14">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>2</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26" s="1">
+        <v>2023</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F26" s="1">
+        <v>127150</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="I26" s="1">
+        <v>2023</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N26" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="O26" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q26" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="S26" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="T26" s="11">
+        <v>350</v>
+      </c>
+      <c r="V26" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="W26" s="14">
+        <v>15</v>
+      </c>
+      <c r="X26" s="14">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>2</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C27" s="1">
+        <v>2023</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F27" s="1">
+        <v>127150</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="I27" s="1">
+        <v>2023</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N27" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="O27" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="S27" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="T27" s="11">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="T28" s="11"/>
       <c r="U28" s="11"/>
       <c r="V28" s="11"/>
       <c r="W28" s="11"/>
       <c r="X28" s="11"/>
     </row>
-    <row r="29" spans="20:24" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="T29" s="11"/>
       <c r="U29" s="11"/>
       <c r="V29" s="11"/>
       <c r="W29" s="11"/>
       <c r="X29" s="11"/>
     </row>
-    <row r="30" spans="20:24" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="T30" s="11"/>
       <c r="U30" s="11"/>
       <c r="V30" s="11"/>
       <c r="W30" s="11"/>
       <c r="X30" s="11"/>
     </row>
-    <row r="31" spans="20:24" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="T31" s="11"/>
       <c r="U31" s="11"/>
       <c r="V31" s="11"/>
       <c r="W31" s="11"/>
       <c r="X31" s="11"/>
     </row>
-    <row r="32" spans="20:24" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="T32" s="11"/>
       <c r="U32" s="11"/>
       <c r="V32" s="11"/>
@@ -6581,6 +7235,27 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
+    <TaxCatchAllLabel xmlns="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
+    <TaxKeywordTaxHTField xmlns="4d5313c0-c1e6-4122-afa9-da1ccdba405d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </TaxKeywordTaxHTField>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C227E214A244A84FBAA5152CDD6EAC80" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9202a1ecfe0ad2ec696e0f91981ba8e0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="4d5313c0-c1e6-4122-afa9-da1ccdba405d" xmlns:ns3="362c980f-4e38-4cca-bd06-5104ee5993c5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a46f65cc92525120babafc4c69c5d04c" ns2:_="" ns3:_="">
     <xsd:import namespace="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
@@ -6757,28 +7432,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{60664607-CBCD-4AFC-843C-4CFA04400440}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="362c980f-4e38-4cca-bd06-5104ee5993c5"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
-    <TaxCatchAllLabel xmlns="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
-    <TaxKeywordTaxHTField xmlns="4d5313c0-c1e6-4122-afa9-da1ccdba405d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </TaxKeywordTaxHTField>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{718E005C-88DE-4F66-B59B-F1C1FF5E3D2A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD780A6C-FDDC-4177-9817-26C904DC3A4B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6795,29 +7474,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{718E005C-88DE-4F66-B59B-F1C1FF5E3D2A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{60664607-CBCD-4AFC-843C-4CFA04400440}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="362c980f-4e38-4cca-bd06-5104ee5993c5"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>